--- a/HW2/part_3/results/ec_pdc_20_OUT_size4.xlsx
+++ b/HW2/part_3/results/ec_pdc_20_OUT_size4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
   <si>
     <t>Motif ID</t>
   </si>
@@ -37,538 +37,580 @@
     <t>Uniqueness</t>
   </si>
   <si>
-    <t>2234.4+-110.9</t>
-  </si>
-  <si>
-    <t>1517.0+-92.4</t>
-  </si>
-  <si>
-    <t>526.9+-53.8</t>
-  </si>
-  <si>
-    <t>3808.7+-168.4</t>
-  </si>
-  <si>
-    <t>10388.8+-247.9</t>
-  </si>
-  <si>
-    <t>1767.2+-62.4</t>
-  </si>
-  <si>
-    <t>236.7+-44.1</t>
-  </si>
-  <si>
-    <t>851.2+-51.8</t>
-  </si>
-  <si>
-    <t>171.5+-47.9</t>
-  </si>
-  <si>
-    <t>715.3+-62.1</t>
-  </si>
-  <si>
-    <t>188.2+-24.6</t>
-  </si>
-  <si>
-    <t>12.6+-9.7</t>
-  </si>
-  <si>
-    <t>2014.6+-103.1</t>
-  </si>
-  <si>
-    <t>674.6+-50.9</t>
-  </si>
-  <si>
-    <t>60.0+-12.5</t>
-  </si>
-  <si>
-    <t>1749.5+-108.8</t>
-  </si>
-  <si>
-    <t>143.9+-40.0</t>
-  </si>
-  <si>
-    <t>1066.2+-116.4</t>
-  </si>
-  <si>
-    <t>180.3+-42.0</t>
-  </si>
-  <si>
-    <t>419.4+-37.4</t>
-  </si>
-  <si>
-    <t>49.7+-13.4</t>
-  </si>
-  <si>
-    <t>200.0+-31.9</t>
-  </si>
-  <si>
-    <t>25.8+-9.2</t>
-  </si>
-  <si>
-    <t>323.8+-32.1</t>
-  </si>
-  <si>
-    <t>4824.6+-204.1</t>
-  </si>
-  <si>
-    <t>400.4+-38.4</t>
-  </si>
-  <si>
-    <t>889.2+-58.0</t>
-  </si>
-  <si>
-    <t>133.2+-19.5</t>
-  </si>
-  <si>
-    <t>1301.7+-68.9</t>
-  </si>
-  <si>
-    <t>134.3+-25.2</t>
-  </si>
-  <si>
-    <t>1160.7+-60.2</t>
-  </si>
-  <si>
-    <t>138.2+-33.5</t>
-  </si>
-  <si>
-    <t>179.2+-21.6</t>
-  </si>
-  <si>
-    <t>21.9+-6.9</t>
-  </si>
-  <si>
-    <t>84.7+-20.0</t>
-  </si>
-  <si>
-    <t>504.9+-39.0</t>
-  </si>
-  <si>
-    <t>31.3+-11.1</t>
-  </si>
-  <si>
-    <t>276.2+-36.1</t>
-  </si>
-  <si>
-    <t>37.1+-10.7</t>
-  </si>
-  <si>
-    <t>312.2+-40.4</t>
-  </si>
-  <si>
-    <t>65.3+-18.7</t>
-  </si>
-  <si>
-    <t>189.7+-22.4</t>
-  </si>
-  <si>
-    <t>19.6+-7.7</t>
-  </si>
-  <si>
-    <t>84.8+-14.9</t>
-  </si>
-  <si>
-    <t>9.6+-4.8</t>
-  </si>
-  <si>
-    <t>24.9+-8.7</t>
-  </si>
-  <si>
-    <t>20.0+-7.7</t>
-  </si>
-  <si>
-    <t>4.1+-5.7</t>
-  </si>
-  <si>
-    <t>252.0+-31.6</t>
-  </si>
-  <si>
-    <t>90.9+-15.6</t>
-  </si>
-  <si>
-    <t>60.2+-13.2</t>
-  </si>
-  <si>
-    <t>17.7+-7.2</t>
-  </si>
-  <si>
-    <t>13.4+-5.7</t>
-  </si>
-  <si>
-    <t>10.7+-4.5</t>
+    <t>543.5+-44.1</t>
+  </si>
+  <si>
+    <t>1073.8+-71.2</t>
+  </si>
+  <si>
+    <t>322.1+-31.1</t>
+  </si>
+  <si>
+    <t>2127.7+-103.9</t>
+  </si>
+  <si>
+    <t>6143.7+-224.1</t>
+  </si>
+  <si>
+    <t>547.3+-28.0</t>
+  </si>
+  <si>
+    <t>240.8+-29.8</t>
+  </si>
+  <si>
+    <t>471.1+-32.8</t>
+  </si>
+  <si>
+    <t>108.6+-19.6</t>
+  </si>
+  <si>
+    <t>329.8+-39.8</t>
+  </si>
+  <si>
+    <t>57.9+-10.5</t>
+  </si>
+  <si>
+    <t>5.8+-3.2</t>
+  </si>
+  <si>
+    <t>2851.3+-158.1</t>
+  </si>
+  <si>
+    <t>1457.6+-86.5</t>
+  </si>
+  <si>
+    <t>207.2+-24.7</t>
+  </si>
+  <si>
+    <t>1594.9+-96.1</t>
+  </si>
+  <si>
+    <t>115.9+-28.7</t>
+  </si>
+  <si>
+    <t>1147.9+-85.2</t>
+  </si>
+  <si>
+    <t>83.1+-15.8</t>
+  </si>
+  <si>
+    <t>423.7+-36.4</t>
+  </si>
+  <si>
+    <t>77.0+-15.3</t>
+  </si>
+  <si>
+    <t>250.0+-36.5</t>
+  </si>
+  <si>
+    <t>56.0+-12.5</t>
+  </si>
+  <si>
+    <t>456.9+-41.1</t>
+  </si>
+  <si>
+    <t>4651.8+-217.4</t>
+  </si>
+  <si>
+    <t>343.0+-42.4</t>
+  </si>
+  <si>
+    <t>1357.0+-78.6</t>
+  </si>
+  <si>
+    <t>101.4+-16.3</t>
+  </si>
+  <si>
+    <t>1483.2+-73.6</t>
+  </si>
+  <si>
+    <t>317.6+-31.5</t>
+  </si>
+  <si>
+    <t>1216.2+-79.4</t>
+  </si>
+  <si>
+    <t>237.7+-47.4</t>
+  </si>
+  <si>
+    <t>317.7+-33.0</t>
+  </si>
+  <si>
+    <t>69.6+-14.2</t>
+  </si>
+  <si>
+    <t>82.8+-16.0</t>
+  </si>
+  <si>
+    <t>344.3+-32.2</t>
+  </si>
+  <si>
+    <t>23.5+-7.3</t>
+  </si>
+  <si>
+    <t>248.9+-26.1</t>
+  </si>
+  <si>
+    <t>16.9+-4.8</t>
+  </si>
+  <si>
+    <t>158.8+-21.9</t>
+  </si>
+  <si>
+    <t>60.6+-12.3</t>
+  </si>
+  <si>
+    <t>102.3+-14.0</t>
+  </si>
+  <si>
+    <t>15.8+-5.2</t>
+  </si>
+  <si>
+    <t>62.3+-11.4</t>
+  </si>
+  <si>
+    <t>12.1+-4.2</t>
+  </si>
+  <si>
+    <t>46.7+-12.0</t>
+  </si>
+  <si>
+    <t>54.4+-12.3</t>
+  </si>
+  <si>
+    <t>22.8+-11.5</t>
+  </si>
+  <si>
+    <t>172.7+-23.3</t>
+  </si>
+  <si>
+    <t>85.8+-15.8</t>
+  </si>
+  <si>
+    <t>75.9+-12.3</t>
+  </si>
+  <si>
+    <t>19.3+-6.1</t>
+  </si>
+  <si>
+    <t>23.4+-7.7</t>
+  </si>
+  <si>
+    <t>15.7+-5.0</t>
+  </si>
+  <si>
+    <t>10.6+-4.3</t>
+  </si>
+  <si>
+    <t>27.1+-6.4</t>
+  </si>
+  <si>
+    <t>11.5+-4.0</t>
+  </si>
+  <si>
+    <t>4.9+-3.2</t>
+  </si>
+  <si>
+    <t>3725.1+-159.2</t>
+  </si>
+  <si>
+    <t>1702.3+-91.3</t>
+  </si>
+  <si>
+    <t>71.4+-12.4</t>
+  </si>
+  <si>
+    <t>195.4+-40.7</t>
+  </si>
+  <si>
+    <t>121.0+-21.2</t>
+  </si>
+  <si>
+    <t>27.3+-8.0</t>
+  </si>
+  <si>
+    <t>205.8+-29.6</t>
+  </si>
+  <si>
+    <t>33.4+-9.9</t>
   </si>
   <si>
     <t>3.2+-2.2</t>
   </si>
   <si>
-    <t>8.5+-4.2</t>
-  </si>
-  <si>
-    <t>0.7+-1.3</t>
-  </si>
-  <si>
-    <t>2844.3+-110.8</t>
-  </si>
-  <si>
-    <t>1833.4+-65.4</t>
-  </si>
-  <si>
-    <t>152.5+-20.7</t>
-  </si>
-  <si>
-    <t>110.7+-26.5</t>
-  </si>
-  <si>
-    <t>144.9+-19.1</t>
-  </si>
-  <si>
-    <t>29.0+-10.2</t>
-  </si>
-  <si>
-    <t>209.5+-25.1</t>
-  </si>
-  <si>
-    <t>53.4+-12.5</t>
-  </si>
-  <si>
-    <t>3.5+-3.2</t>
-  </si>
-  <si>
-    <t>47.5+-13.1</t>
-  </si>
-  <si>
-    <t>2.8+-2.2</t>
-  </si>
-  <si>
-    <t>2.8+-2.1</t>
-  </si>
-  <si>
-    <t>5.4+-2.9</t>
-  </si>
-  <si>
-    <t>7.6+-3.9</t>
-  </si>
-  <si>
-    <t>1.7+-1.6</t>
-  </si>
-  <si>
-    <t>0.0+-0.2</t>
-  </si>
-  <si>
-    <t>1194.5+-85.0</t>
-  </si>
-  <si>
-    <t>157.2+-24.2</t>
-  </si>
-  <si>
-    <t>5.4+-2.4</t>
-  </si>
-  <si>
-    <t>190.8+-49.0</t>
-  </si>
-  <si>
-    <t>913.4+-84.0</t>
-  </si>
-  <si>
-    <t>95.9+-22.1</t>
-  </si>
-  <si>
-    <t>628.7+-45.9</t>
-  </si>
-  <si>
-    <t>31.6+-10.1</t>
-  </si>
-  <si>
-    <t>250.7+-33.9</t>
-  </si>
-  <si>
-    <t>17.8+-5.7</t>
-  </si>
-  <si>
-    <t>210.2+-43.0</t>
-  </si>
-  <si>
-    <t>699.0+-65.7</t>
-  </si>
-  <si>
-    <t>75.9+-18.9</t>
-  </si>
-  <si>
-    <t>239.7+-25.6</t>
-  </si>
-  <si>
-    <t>25.2+-8.1</t>
-  </si>
-  <si>
-    <t>89.2+-15.7</t>
-  </si>
-  <si>
-    <t>7.4+-2.5</t>
-  </si>
-  <si>
-    <t>7.5+-4.7</t>
-  </si>
-  <si>
-    <t>183.6+-23.0</t>
-  </si>
-  <si>
-    <t>7.5+-3.9</t>
-  </si>
-  <si>
-    <t>35.6+-8.4</t>
-  </si>
-  <si>
-    <t>2.2+-1.8</t>
-  </si>
-  <si>
-    <t>18.8+-9.6</t>
-  </si>
-  <si>
-    <t>112.1+-16.9</t>
-  </si>
-  <si>
-    <t>13.0+-5.6</t>
-  </si>
-  <si>
-    <t>20.3+-6.9</t>
-  </si>
-  <si>
-    <t>1.9+-1.4</t>
-  </si>
-  <si>
-    <t>75.7+-16.7</t>
-  </si>
-  <si>
-    <t>108.5+-9.8</t>
-  </si>
-  <si>
-    <t>23.2+-6.0</t>
-  </si>
-  <si>
-    <t>114.3+-25.6</t>
-  </si>
-  <si>
-    <t>38.3+-12.6</t>
-  </si>
-  <si>
-    <t>16.8+-5.2</t>
-  </si>
-  <si>
-    <t>17.4+-5.1</t>
-  </si>
-  <si>
-    <t>6.8+-2.8</t>
-  </si>
-  <si>
-    <t>19.9+-6.4</t>
-  </si>
-  <si>
-    <t>15.0+-5.9</t>
-  </si>
-  <si>
-    <t>49.4+-10.2</t>
-  </si>
-  <si>
-    <t>18.2+-6.4</t>
-  </si>
-  <si>
-    <t>2.3+-1.9</t>
-  </si>
-  <si>
-    <t>7.4+-3.7</t>
-  </si>
-  <si>
-    <t>2.6+-2.1</t>
-  </si>
-  <si>
-    <t>12.7+-4.5</t>
-  </si>
-  <si>
-    <t>8.1+-3.6</t>
+    <t>84.0+-19.4</t>
+  </si>
+  <si>
+    <t>9.3+-4.7</t>
+  </si>
+  <si>
+    <t>2.5+-1.9</t>
+  </si>
+  <si>
+    <t>5.1+-2.8</t>
+  </si>
+  <si>
+    <t>9.8+-4.1</t>
+  </si>
+  <si>
+    <t>3.6+-2.4</t>
+  </si>
+  <si>
+    <t>0.6+-0.9</t>
+  </si>
+  <si>
+    <t>2266.1+-112.8</t>
+  </si>
+  <si>
+    <t>522.2+-47.6</t>
+  </si>
+  <si>
+    <t>37.9+-8.5</t>
+  </si>
+  <si>
+    <t>306.0+-71.6</t>
+  </si>
+  <si>
+    <t>1345.4+-94.8</t>
+  </si>
+  <si>
+    <t>179.8+-33.2</t>
+  </si>
+  <si>
+    <t>1119.2+-75.4</t>
+  </si>
+  <si>
+    <t>76.5+-20.1</t>
+  </si>
+  <si>
+    <t>760.8+-61.7</t>
+  </si>
+  <si>
+    <t>52.9+-11.1</t>
+  </si>
+  <si>
+    <t>242.4+-42.1</t>
+  </si>
+  <si>
+    <t>766.8+-86.0</t>
+  </si>
+  <si>
+    <t>136.1+-27.7</t>
+  </si>
+  <si>
+    <t>337.8+-35.6</t>
+  </si>
+  <si>
+    <t>56.0+-12.3</t>
+  </si>
+  <si>
+    <t>182.5+-24.5</t>
+  </si>
+  <si>
+    <t>30.3+-6.3</t>
+  </si>
+  <si>
+    <t>10.4+-5.7</t>
+  </si>
+  <si>
+    <t>201.3+-24.6</t>
+  </si>
+  <si>
+    <t>12.3+-5.1</t>
+  </si>
+  <si>
+    <t>70.8+-11.9</t>
+  </si>
+  <si>
+    <t>4.4+-2.6</t>
+  </si>
+  <si>
+    <t>7.7+-3.9</t>
+  </si>
+  <si>
+    <t>65.5+-11.2</t>
+  </si>
+  <si>
+    <t>9.2+-3.5</t>
+  </si>
+  <si>
+    <t>18.4+-6.0</t>
+  </si>
+  <si>
+    <t>2.7+-1.7</t>
+  </si>
+  <si>
+    <t>100.1+-23.4</t>
+  </si>
+  <si>
+    <t>308.1+-20.2</t>
+  </si>
+  <si>
+    <t>28.5+-8.3</t>
+  </si>
+  <si>
+    <t>224.0+-43.5</t>
+  </si>
+  <si>
+    <t>135.4+-28.4</t>
+  </si>
+  <si>
+    <t>105.3+-15.2</t>
+  </si>
+  <si>
+    <t>52.3+-10.5</t>
+  </si>
+  <si>
+    <t>39.3+-7.9</t>
+  </si>
+  <si>
+    <t>20.6+-6.5</t>
+  </si>
+  <si>
+    <t>20.6+-6.8</t>
+  </si>
+  <si>
+    <t>61.0+-11.2</t>
+  </si>
+  <si>
+    <t>15.2+-4.8</t>
+  </si>
+  <si>
+    <t>5.3+-3.0</t>
+  </si>
+  <si>
+    <t>12.2+-5.2</t>
+  </si>
+  <si>
+    <t>8.3+-3.5</t>
+  </si>
+  <si>
+    <t>21.0+-5.4</t>
+  </si>
+  <si>
+    <t>3.1+-2.0</t>
+  </si>
+  <si>
+    <t>170.4+-31.8</t>
+  </si>
+  <si>
+    <t>55.2+-26.3</t>
+  </si>
+  <si>
+    <t>35.8+-9.5</t>
+  </si>
+  <si>
+    <t>40.1+-8.1</t>
+  </si>
+  <si>
+    <t>12.7+-5.6</t>
+  </si>
+  <si>
+    <t>74.5+-20.6</t>
+  </si>
+  <si>
+    <t>13.7+-5.7</t>
+  </si>
+  <si>
+    <t>46.0+-11.4</t>
+  </si>
+  <si>
+    <t>43.2+-8.1</t>
+  </si>
+  <si>
+    <t>10.4+-4.1</t>
+  </si>
+  <si>
+    <t>46.1+-11.5</t>
+  </si>
+  <si>
+    <t>16.6+-5.0</t>
+  </si>
+  <si>
+    <t>8.0+-3.4</t>
+  </si>
+  <si>
+    <t>55.1+-13.4</t>
+  </si>
+  <si>
+    <t>28.0+-8.2</t>
+  </si>
+  <si>
+    <t>9.4+-3.8</t>
+  </si>
+  <si>
+    <t>4.7+-2.5</t>
+  </si>
+  <si>
+    <t>13.9+-5.8</t>
+  </si>
+  <si>
+    <t>8.3+-3.8</t>
+  </si>
+  <si>
+    <t>21.2+-5.6</t>
+  </si>
+  <si>
+    <t>7.7+-3.6</t>
+  </si>
+  <si>
+    <t>30.0+-6.9</t>
+  </si>
+  <si>
+    <t>5.9+-2.7</t>
+  </si>
+  <si>
+    <t>10.2+-3.9</t>
+  </si>
+  <si>
+    <t>12.2+-4.2</t>
+  </si>
+  <si>
+    <t>7.3+-4.4</t>
+  </si>
+  <si>
+    <t>12.0+-4.7</t>
+  </si>
+  <si>
+    <t>6.3+-3.0</t>
+  </si>
+  <si>
+    <t>6.7+-2.9</t>
+  </si>
+  <si>
+    <t>4.4+-2.7</t>
+  </si>
+  <si>
+    <t>4.7+-3.2</t>
+  </si>
+  <si>
+    <t>61.3+-14.9</t>
+  </si>
+  <si>
+    <t>3.7+-2.3</t>
+  </si>
+  <si>
+    <t>6.7+-3.6</t>
+  </si>
+  <si>
+    <t>3.2+-2.3</t>
+  </si>
+  <si>
+    <t>13.3+-4.6</t>
+  </si>
+  <si>
+    <t>2.6+-1.7</t>
+  </si>
+  <si>
+    <t>5.2+-2.9</t>
+  </si>
+  <si>
+    <t>48.1+-14.0</t>
+  </si>
+  <si>
+    <t>34.5+-9.1</t>
+  </si>
+  <si>
+    <t>2.9+-1.9</t>
+  </si>
+  <si>
+    <t>2.4+-1.9</t>
+  </si>
+  <si>
+    <t>37.5+-10.0</t>
+  </si>
+  <si>
+    <t>1.9+-1.5</t>
+  </si>
+  <si>
+    <t>8.0+-3.7</t>
+  </si>
+  <si>
+    <t>2.2+-1.6</t>
+  </si>
+  <si>
+    <t>8.2+-3.6</t>
+  </si>
+  <si>
+    <t>1.2+-1.2</t>
+  </si>
+  <si>
+    <t>1.2+-1.3</t>
+  </si>
+  <si>
+    <t>10.8+-4.4</t>
+  </si>
+  <si>
+    <t>0.9+-1.0</t>
+  </si>
+  <si>
+    <t>1.7+-1.5</t>
+  </si>
+  <si>
+    <t>8.1+-3.3</t>
+  </si>
+  <si>
+    <t>1.8+-1.5</t>
+  </si>
+  <si>
+    <t>1.4+-1.3</t>
+  </si>
+  <si>
+    <t>0.9+-1.1</t>
   </si>
   <si>
     <t>0.7+-0.9</t>
   </si>
   <si>
-    <t>72.7+-18.8</t>
-  </si>
-  <si>
-    <t>9.7+-11.5</t>
-  </si>
-  <si>
-    <t>14.2+-5.1</t>
-  </si>
-  <si>
-    <t>9.0+-3.1</t>
-  </si>
-  <si>
-    <t>1.1+-1.5</t>
-  </si>
-  <si>
-    <t>43.5+-13.4</t>
-  </si>
-  <si>
-    <t>5.0+-3.1</t>
-  </si>
-  <si>
-    <t>20.9+-6.7</t>
-  </si>
-  <si>
-    <t>18.9+-5.9</t>
-  </si>
-  <si>
-    <t>2.6+-1.8</t>
-  </si>
-  <si>
-    <t>36.1+-10.5</t>
-  </si>
-  <si>
-    <t>15.7+-5.5</t>
-  </si>
-  <si>
-    <t>3.8+-2.4</t>
-  </si>
-  <si>
-    <t>55.6+-12.6</t>
-  </si>
-  <si>
-    <t>13.5+-5.7</t>
-  </si>
-  <si>
-    <t>5.9+-3.0</t>
-  </si>
-  <si>
-    <t>1.1+-1.1</t>
-  </si>
-  <si>
-    <t>1.8+-1.6</t>
-  </si>
-  <si>
-    <t>11.1+-4.0</t>
-  </si>
-  <si>
-    <t>7.3+-3.2</t>
-  </si>
-  <si>
-    <t>4.7+-2.7</t>
-  </si>
-  <si>
-    <t>11.7+-4.7</t>
-  </si>
-  <si>
-    <t>1.5+-2.3</t>
-  </si>
-  <si>
-    <t>10.7+-4.4</t>
-  </si>
-  <si>
-    <t>1.7+-1.5</t>
-  </si>
-  <si>
-    <t>3.9+-2.1</t>
-  </si>
-  <si>
-    <t>0.5+-0.8</t>
-  </si>
-  <si>
-    <t>44.5+-11.5</t>
-  </si>
-  <si>
-    <t>6.3+-3.8</t>
-  </si>
-  <si>
-    <t>5.3+-3.1</t>
-  </si>
-  <si>
-    <t>1.6+-1.5</t>
-  </si>
-  <si>
-    <t>12.5+-4.7</t>
-  </si>
-  <si>
-    <t>1.4+-1.3</t>
-  </si>
-  <si>
-    <t>2.2+-1.9</t>
-  </si>
-  <si>
-    <t>64.4+-16.2</t>
-  </si>
-  <si>
-    <t>26.7+-7.8</t>
-  </si>
-  <si>
-    <t>0.8+-1.0</t>
-  </si>
-  <si>
-    <t>2.2+-1.7</t>
-  </si>
-  <si>
-    <t>13.7+-5.5</t>
-  </si>
-  <si>
-    <t>16.5+-5.5</t>
-  </si>
-  <si>
-    <t>7.7+-3.8</t>
-  </si>
-  <si>
-    <t>0.7+-0.8</t>
+    <t>1.5+-1.4</t>
+  </si>
+  <si>
+    <t>0.6+-0.8</t>
+  </si>
+  <si>
+    <t>12.6+-6.9</t>
+  </si>
+  <si>
+    <t>3.0+-2.0</t>
+  </si>
+  <si>
+    <t>6.1+-2.8</t>
+  </si>
+  <si>
+    <t>4.3+-2.5</t>
+  </si>
+  <si>
+    <t>2.8+-1.8</t>
+  </si>
+  <si>
+    <t>2.6+-1.6</t>
+  </si>
+  <si>
+    <t>0.7+-1.0</t>
+  </si>
+  <si>
+    <t>1.5+-1.3</t>
+  </si>
+  <si>
+    <t>0.2+-0.5</t>
+  </si>
+  <si>
+    <t>0.3+-0.5</t>
+  </si>
+  <si>
+    <t>1.0+-1.1</t>
+  </si>
+  <si>
+    <t>1.1+-1.2</t>
   </si>
   <si>
     <t>0.4+-0.7</t>
   </si>
   <si>
-    <t>4.9+-2.7</t>
-  </si>
-  <si>
-    <t>0.9+-1.0</t>
-  </si>
-  <si>
-    <t>0.2+-0.5</t>
-  </si>
-  <si>
-    <t>1.2+-1.4</t>
-  </si>
-  <si>
-    <t>0.1+-0.3</t>
-  </si>
-  <si>
-    <t>1.1+-1.3</t>
-  </si>
-  <si>
-    <t>0.1+-0.2</t>
-  </si>
-  <si>
-    <t>3.3+-4.3</t>
-  </si>
-  <si>
-    <t>1.3+-1.2</t>
-  </si>
-  <si>
-    <t>0.5+-0.9</t>
-  </si>
-  <si>
-    <t>0.3+-0.5</t>
+    <t>0.3+-0.6</t>
   </si>
   <si>
     <t>0.0+-0.1</t>
-  </si>
-  <si>
-    <t>0.6+-0.8</t>
-  </si>
-  <si>
-    <t>0.2+-0.4</t>
-  </si>
-  <si>
-    <t>0.3+-0.6</t>
-  </si>
-  <si>
-    <t>0.6+-1.1</t>
-  </si>
-  <si>
-    <t>0.0+-0.0</t>
   </si>
 </sst>
 </file>
@@ -963,19 +1005,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1901</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>-3.01</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.62</v>
+        <v>4.05</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -989,22 +1031,22 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>845</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>-7.27</v>
+        <v>-7.2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.28</v>
+        <v>14.94</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1015,22 +1057,22 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>-3.44</v>
+        <v>-6.09</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.210000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1041,22 +1083,22 @@
         <v>74</v>
       </c>
       <c r="C5">
-        <v>3784</v>
+        <v>1294</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>-0.15</v>
+        <v>-8.02</v>
       </c>
       <c r="F5">
-        <v>0.5429999999999999</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>90.81</v>
+        <v>34.47</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1067,19 +1109,19 @@
         <v>76</v>
       </c>
       <c r="C6">
-        <v>6002</v>
+        <v>3197</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6">
-        <v>-17.7</v>
+        <v>-13.15</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.04</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -1093,19 +1135,19 @@
         <v>78</v>
       </c>
       <c r="C7">
-        <v>1534</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>-3.74</v>
+        <v>-7.18</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.81</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1119,22 +1161,22 @@
         <v>90</v>
       </c>
       <c r="C8">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.21</v>
+        <v>-4.43</v>
       </c>
       <c r="F8">
-        <v>0.395</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1145,19 +1187,19 @@
         <v>92</v>
       </c>
       <c r="C9">
-        <v>978</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>2.45</v>
+        <v>-0.19</v>
       </c>
       <c r="F9">
-        <v>0.003</v>
+        <v>0.57</v>
       </c>
       <c r="G9">
-        <v>23.47</v>
+        <v>12.39</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1171,19 +1213,19 @@
         <v>94</v>
       </c>
       <c r="C10">
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>4.96</v>
+        <v>3.08</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G10">
-        <v>9.82</v>
+        <v>4.5</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1197,22 +1239,22 @@
         <v>204</v>
       </c>
       <c r="C11">
-        <v>409</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>-4.93</v>
+        <v>-3.97</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.82</v>
+        <v>4.58</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1223,22 +1265,22 @@
         <v>206</v>
       </c>
       <c r="C12">
-        <v>379</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12">
-        <v>7.75</v>
+        <v>3.26</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G12">
-        <v>9.1</v>
+        <v>2.45</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1249,19 +1291,19 @@
         <v>222</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>5.21</v>
+        <v>6.41</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1275,19 +1317,19 @@
         <v>280</v>
       </c>
       <c r="C14">
-        <v>1472</v>
+        <v>2366</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>-5.26</v>
+        <v>-3.07</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="G14">
-        <v>35.33</v>
+        <v>63.02</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -1301,22 +1343,22 @@
         <v>282</v>
       </c>
       <c r="C15">
-        <v>305</v>
+        <v>728</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>-7.26</v>
+        <v>-8.44</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.32</v>
+        <v>19.39</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1327,22 +1369,22 @@
         <v>286</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>-3.37</v>
+        <v>-5.83</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.43</v>
+        <v>1.68</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1353,22 +1395,22 @@
         <v>328</v>
       </c>
       <c r="C17">
-        <v>1317</v>
+        <v>1503</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>-3.97</v>
+        <v>-0.96</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.841</v>
       </c>
       <c r="G17">
-        <v>31.61</v>
+        <v>40.03</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1379,22 +1421,22 @@
         <v>330</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>-3.27</v>
+        <v>-2.3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G18">
-        <v>0.31</v>
+        <v>1.33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1405,22 +1447,22 @@
         <v>332</v>
       </c>
       <c r="C19">
-        <v>298</v>
+        <v>505</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>-6.6</v>
+        <v>-7.55</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.15</v>
+        <v>13.45</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1431,22 +1473,22 @@
         <v>334</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20">
-        <v>-3.67</v>
+        <v>-4.05</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1457,19 +1499,19 @@
         <v>344</v>
       </c>
       <c r="C21">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21">
-        <v>7.98</v>
+        <v>8.82</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>17.23</v>
+        <v>19.84</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -1483,22 +1525,22 @@
         <v>346</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>-0.73</v>
+        <v>-1.77</v>
       </c>
       <c r="F22">
-        <v>0.785</v>
+        <v>0.971</v>
       </c>
       <c r="G22">
-        <v>0.96</v>
+        <v>1.33</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1509,22 +1551,22 @@
         <v>348</v>
       </c>
       <c r="C23">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>3.42</v>
+        <v>5.59</v>
       </c>
       <c r="F23">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>7.42</v>
+        <v>12.09</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1535,19 +1577,19 @@
         <v>350</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24">
-        <v>1.01</v>
+        <v>-1.28</v>
       </c>
       <c r="F24">
-        <v>0.174</v>
+        <v>0.9109999999999999</v>
       </c>
       <c r="G24">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1561,22 +1603,22 @@
         <v>390</v>
       </c>
       <c r="C25">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25">
-        <v>-1.33</v>
+        <v>-2.14</v>
       </c>
       <c r="F25">
-        <v>0.9229999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G25">
-        <v>6.74</v>
+        <v>9.83</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1587,19 +1629,19 @@
         <v>392</v>
       </c>
       <c r="C26">
-        <v>4490</v>
+        <v>3910</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="E26">
-        <v>-1.64</v>
+        <v>-3.41</v>
       </c>
       <c r="F26">
-        <v>0.956</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>107.75</v>
+        <v>104.14</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1613,22 +1655,22 @@
         <v>394</v>
       </c>
       <c r="C27">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
       <c r="E27">
-        <v>1.34</v>
+        <v>2.38</v>
       </c>
       <c r="F27">
-        <v>0.08900000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="G27">
-        <v>10.85</v>
+        <v>11.83</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1639,22 +1681,22 @@
         <v>396</v>
       </c>
       <c r="C28">
-        <v>585</v>
+        <v>823</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28">
-        <v>-5.25</v>
+        <v>-6.8</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.04</v>
+        <v>21.92</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1665,22 +1707,22 @@
         <v>398</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="E29">
-        <v>-4.17</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.484</v>
       </c>
       <c r="G29">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1691,22 +1733,22 @@
         <v>404</v>
       </c>
       <c r="C30">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
       </c>
       <c r="E30">
-        <v>-8.210000000000001</v>
+        <v>-9.18</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.66</v>
+        <v>21.49</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1717,22 +1759,22 @@
         <v>406</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
       </c>
       <c r="E31">
-        <v>-4.42</v>
+        <v>-8.25</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.55</v>
+        <v>1.54</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1743,22 +1785,22 @@
         <v>408</v>
       </c>
       <c r="C32">
-        <v>1095</v>
+        <v>1338</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
       <c r="E32">
-        <v>-1.09</v>
+        <v>1.53</v>
       </c>
       <c r="F32">
-        <v>0.878</v>
+        <v>0.059</v>
       </c>
       <c r="G32">
-        <v>26.28</v>
+        <v>35.64</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1769,19 +1811,19 @@
         <v>410</v>
       </c>
       <c r="C33">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33">
-        <v>0.26</v>
+        <v>4.4</v>
       </c>
       <c r="F33">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3.53</v>
+        <v>11.88</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1795,22 +1837,22 @@
         <v>412</v>
       </c>
       <c r="C34">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34">
-        <v>-3.52</v>
+        <v>-2.26</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G34">
-        <v>2.47</v>
+        <v>6.47</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1821,22 +1863,22 @@
         <v>414</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35">
-        <v>-1.58</v>
+        <v>-0.61</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.7290000000000001</v>
       </c>
       <c r="G35">
-        <v>0.26</v>
+        <v>1.62</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1847,22 +1889,22 @@
         <v>454</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36">
-        <v>-2.68</v>
+        <v>-2.24</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="G36">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1873,22 +1915,22 @@
         <v>456</v>
       </c>
       <c r="C37">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37">
-        <v>-8.720000000000001</v>
+        <v>-6.99</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.96</v>
+        <v>3.17</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1899,22 +1941,22 @@
         <v>458</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38">
-        <v>-2.38</v>
+        <v>-0.34</v>
       </c>
       <c r="F38">
-        <v>0.9990000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G38">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1925,22 +1967,22 @@
         <v>460</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39">
-        <v>-5.74</v>
+        <v>-6.39</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1951,22 +1993,22 @@
         <v>462</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40">
-        <v>-2.61</v>
+        <v>-1.01</v>
       </c>
       <c r="F40">
-        <v>0.998</v>
+        <v>0.893</v>
       </c>
       <c r="G40">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1977,19 +2019,19 @@
         <v>468</v>
       </c>
       <c r="C41">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41">
-        <v>-0.87</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
-        <v>0.8100000000000001</v>
+        <v>0.457</v>
       </c>
       <c r="G41">
-        <v>6.65</v>
+        <v>4.29</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -2003,22 +2045,22 @@
         <v>470</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42">
-        <v>-1.72</v>
+        <v>-2.4</v>
       </c>
       <c r="F42">
-        <v>0.965</v>
+        <v>0.995</v>
       </c>
       <c r="G42">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2029,22 +2071,22 @@
         <v>472</v>
       </c>
       <c r="C43">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="F43">
-        <v>0.26</v>
+        <v>0.234</v>
       </c>
       <c r="G43">
-        <v>4.9</v>
+        <v>3.01</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2055,19 +2097,19 @@
         <v>474</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44">
-        <v>-1.51</v>
+        <v>0.6</v>
       </c>
       <c r="F44">
-        <v>0.973</v>
+        <v>0.283</v>
       </c>
       <c r="G44">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2081,19 +2123,19 @@
         <v>476</v>
       </c>
       <c r="C45">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45">
-        <v>2.42</v>
+        <v>6.56</v>
       </c>
       <c r="F45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -2107,19 +2149,19 @@
         <v>478</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="F46">
-        <v>0.023</v>
+        <v>0.032</v>
       </c>
       <c r="G46">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2133,22 +2175,22 @@
         <v>856</v>
       </c>
       <c r="C47">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47">
-        <v>7.4</v>
+        <v>10.25</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2.14</v>
+        <v>4.53</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2159,22 +2201,22 @@
         <v>858</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48">
-        <v>1.17</v>
+        <v>0.29</v>
       </c>
       <c r="F48">
-        <v>0.141</v>
+        <v>0.373</v>
       </c>
       <c r="G48">
-        <v>0.7</v>
+        <v>1.54</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2185,22 +2227,22 @@
         <v>862</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49">
-        <v>0.16</v>
+        <v>3.58</v>
       </c>
       <c r="F49">
-        <v>0.359</v>
+        <v>0.004</v>
       </c>
       <c r="G49">
-        <v>0.12</v>
+        <v>1.7</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2211,22 +2253,22 @@
         <v>904</v>
       </c>
       <c r="C50">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50">
-        <v>2.72</v>
+        <v>-3.38</v>
       </c>
       <c r="F50">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>8.109999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2237,22 +2279,22 @@
         <v>906</v>
       </c>
       <c r="C51">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51">
-        <v>9.26</v>
+        <v>7.81</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2263,22 +2305,22 @@
         <v>908</v>
       </c>
       <c r="C52">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52">
-        <v>0.21</v>
+        <v>-3.97</v>
       </c>
       <c r="F52">
-        <v>0.407</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1.51</v>
+        <v>0.72</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2289,22 +2331,22 @@
         <v>910</v>
       </c>
       <c r="C53">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53">
-        <v>6.31</v>
+        <v>3.38</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G53">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2315,19 +2357,19 @@
         <v>922</v>
       </c>
       <c r="C54">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1.66</v>
+        <v>4.5</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -2341,22 +2383,22 @@
         <v>924</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55">
-        <v>-0.8100000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="F55">
-        <v>0.823</v>
+        <v>0.065</v>
       </c>
       <c r="G55">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2367,22 +2409,22 @@
         <v>926</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56">
-        <v>2.7</v>
+        <v>4.54</v>
       </c>
       <c r="F56">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.22</v>
+        <v>0.8</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2396,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E57">
-        <v>-2.36</v>
+        <v>-4.22</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2422,19 +2464,19 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E58">
-        <v>2.03</v>
+        <v>1.36</v>
       </c>
       <c r="F58">
-        <v>0.046</v>
+        <v>0.108</v>
       </c>
       <c r="G58">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2445,22 +2487,22 @@
         <v>990</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59">
-        <v>3.36</v>
+        <v>11.26</v>
       </c>
       <c r="F59">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.12</v>
+        <v>1.09</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2471,19 +2513,19 @@
         <v>2184</v>
       </c>
       <c r="C60">
-        <v>1987</v>
+        <v>2553</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60">
-        <v>-7.74</v>
+        <v>-7.36</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>47.68</v>
+        <v>68</v>
       </c>
       <c r="H60">
         <v>11</v>
@@ -2497,22 +2539,22 @@
         <v>2186</v>
       </c>
       <c r="C61">
-        <v>2024</v>
+        <v>2037</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E61">
-        <v>2.91</v>
+        <v>3.66</v>
       </c>
       <c r="F61">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>48.57</v>
+        <v>54.25</v>
       </c>
       <c r="H61">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2523,19 +2565,19 @@
         <v>2190</v>
       </c>
       <c r="C62">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E62">
-        <v>1.33</v>
+        <v>3.11</v>
       </c>
       <c r="F62">
-        <v>0.091</v>
+        <v>0.006</v>
       </c>
       <c r="G62">
-        <v>4.32</v>
+        <v>2.93</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -2549,19 +2591,19 @@
         <v>2202</v>
       </c>
       <c r="C63">
-        <v>192</v>
+        <v>406</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E63">
-        <v>3.07</v>
+        <v>5.18</v>
       </c>
       <c r="F63">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>4.61</v>
+        <v>10.81</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -2575,22 +2617,22 @@
         <v>2204</v>
       </c>
       <c r="C64">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E64">
-        <v>1.99</v>
+        <v>3.64</v>
       </c>
       <c r="F64">
-        <v>0.039</v>
+        <v>0.002</v>
       </c>
       <c r="G64">
-        <v>4.39</v>
+        <v>5.27</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2601,22 +2643,22 @@
         <v>2206</v>
       </c>
       <c r="C65">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65">
-        <v>2.83</v>
+        <v>4.44</v>
       </c>
       <c r="F65">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="G65">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2627,22 +2669,22 @@
         <v>2252</v>
       </c>
       <c r="C66">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66">
-        <v>7.98</v>
+        <v>4.03</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>9.84</v>
+        <v>8.66</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2653,22 +2695,22 @@
         <v>2254</v>
       </c>
       <c r="C67">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E67">
-        <v>12.24</v>
+        <v>13.25</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4.97</v>
+        <v>4.37</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2679,22 +2721,22 @@
         <v>2270</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E68">
-        <v>8.77</v>
+        <v>12.67</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2705,19 +2747,19 @@
         <v>2458</v>
       </c>
       <c r="C69">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E69">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="F69">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="G69">
-        <v>1.92</v>
+        <v>3.62</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -2731,22 +2773,22 @@
         <v>2462</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E70">
-        <v>0.5600000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="F70">
-        <v>0.303</v>
+        <v>0.027</v>
       </c>
       <c r="G70">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2757,22 +2799,22 @@
         <v>2506</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E71">
-        <v>-1.35</v>
+        <v>-0.27</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2783,22 +2825,22 @@
         <v>2510</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E72">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="F72">
-        <v>0.06</v>
+        <v>0.015</v>
       </c>
       <c r="G72">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2809,22 +2851,22 @@
         <v>2524</v>
       </c>
       <c r="C73">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E73">
-        <v>13.18</v>
+        <v>20.92</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1.42</v>
+        <v>2.53</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2835,19 +2877,19 @@
         <v>2526</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E74">
-        <v>12.68</v>
+        <v>10.97</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -2861,22 +2903,22 @@
         <v>3038</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E75">
-        <v>-0.18</v>
+        <v>18.08</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2887,22 +2929,22 @@
         <v>4370</v>
       </c>
       <c r="C76">
-        <v>510</v>
+        <v>1175</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E76">
-        <v>-8.050000000000001</v>
+        <v>-9.67</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>12.24</v>
+        <v>31.3</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2913,19 +2955,19 @@
         <v>4374</v>
       </c>
       <c r="C77">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E77">
-        <v>-4.68</v>
+        <v>-8.15</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1.06</v>
+        <v>3.57</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -2939,22 +2981,22 @@
         <v>4382</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E78">
-        <v>-1.8</v>
+        <v>-4.21</v>
       </c>
       <c r="F78">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2965,22 +3007,22 @@
         <v>4418</v>
       </c>
       <c r="C79">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79">
-        <v>-2.63</v>
+        <v>-2.32</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="G79">
-        <v>1.49</v>
+        <v>3.73</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2991,19 +3033,19 @@
         <v>4420</v>
       </c>
       <c r="C80">
-        <v>555</v>
+        <v>631</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E80">
-        <v>-4.27</v>
+        <v>-7.53</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>13.32</v>
+        <v>16.81</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -3017,19 +3059,19 @@
         <v>4422</v>
       </c>
       <c r="C81">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E81">
-        <v>-1.49</v>
+        <v>-4.06</v>
       </c>
       <c r="F81">
-        <v>0.946</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -3043,22 +3085,22 @@
         <v>4424</v>
       </c>
       <c r="C82">
-        <v>547</v>
+        <v>921</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82">
-        <v>-1.78</v>
+        <v>-2.63</v>
       </c>
       <c r="F82">
-        <v>0.963</v>
+        <v>0.993</v>
       </c>
       <c r="G82">
-        <v>13.13</v>
+        <v>24.53</v>
       </c>
       <c r="H82">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3069,22 +3111,22 @@
         <v>4426</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83">
-        <v>-3.02</v>
+        <v>-2.96</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3095,22 +3137,22 @@
         <v>4428</v>
       </c>
       <c r="C84">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84">
-        <v>-5.01</v>
+        <v>-9.42</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>1.94</v>
+        <v>4.77</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3121,19 +3163,19 @@
         <v>4430</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85">
-        <v>-2.6</v>
+        <v>-4.32</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -3147,22 +3189,22 @@
         <v>4434</v>
       </c>
       <c r="C86">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86">
-        <v>-2.84</v>
+        <v>-1.51</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.946</v>
       </c>
       <c r="G86">
-        <v>2.11</v>
+        <v>4.77</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3173,22 +3215,22 @@
         <v>4436</v>
       </c>
       <c r="C87">
-        <v>898</v>
+        <v>1057</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E87">
-        <v>3.03</v>
+        <v>3.37</v>
       </c>
       <c r="F87">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>21.55</v>
+        <v>28.15</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3199,22 +3241,22 @@
         <v>4438</v>
       </c>
       <c r="C88">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88">
-        <v>-1.11</v>
+        <v>-1.05</v>
       </c>
       <c r="F88">
-        <v>0.867</v>
+        <v>0.853</v>
       </c>
       <c r="G88">
-        <v>1.32</v>
+        <v>2.85</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3225,22 +3267,22 @@
         <v>4440</v>
       </c>
       <c r="C89">
-        <v>215</v>
+        <v>489</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E89">
-        <v>-0.96</v>
+        <v>4.25</v>
       </c>
       <c r="F89">
-        <v>0.836</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>5.16</v>
+        <v>13.02</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3251,19 +3293,19 @@
         <v>4442</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E90">
-        <v>-1.51</v>
+        <v>-2.6</v>
       </c>
       <c r="F90">
-        <v>0.958</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3277,22 +3319,22 @@
         <v>4444</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E91">
-        <v>-2.11</v>
+        <v>-2.35</v>
       </c>
       <c r="F91">
-        <v>0.991</v>
+        <v>0.996</v>
       </c>
       <c r="G91">
-        <v>1.34</v>
+        <v>3.33</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3303,22 +3345,22 @@
         <v>4446</v>
       </c>
       <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92">
+        <v>-3.39</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0.24</v>
+      </c>
+      <c r="H92">
         <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92">
-        <v>-1.78</v>
-      </c>
-      <c r="F92">
-        <v>0.9790000000000001</v>
-      </c>
-      <c r="G92">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3329,22 +3371,22 @@
         <v>4546</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E93">
-        <v>-0.55</v>
+        <v>-1.83</v>
       </c>
       <c r="F93">
-        <v>0.7240000000000001</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3355,22 +3397,22 @@
         <v>4548</v>
       </c>
       <c r="C94">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94">
-        <v>-3.9</v>
+        <v>-6.73</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>2.26</v>
+        <v>0.96</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3381,19 +3423,19 @@
         <v>4550</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95">
-        <v>-1.15</v>
+        <v>-2.19</v>
       </c>
       <c r="F95">
-        <v>0.9259999999999999</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -3407,22 +3449,22 @@
         <v>4556</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96">
-        <v>-3.03</v>
+        <v>-4.18</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
-        <v>0.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3433,22 +3475,22 @@
         <v>4558</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97">
-        <v>-0.6899999999999999</v>
+        <v>-1.72</v>
       </c>
       <c r="F97">
-        <v>0.858</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3459,19 +3501,19 @@
         <v>4562</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E98">
-        <v>-1.66</v>
+        <v>-0.95</v>
       </c>
       <c r="F98">
-        <v>0.995</v>
+        <v>0.882</v>
       </c>
       <c r="G98">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -3485,19 +3527,19 @@
         <v>4564</v>
       </c>
       <c r="C99">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99">
-        <v>0.23</v>
+        <v>3.35</v>
       </c>
       <c r="F99">
-        <v>0.406</v>
+        <v>0.001</v>
       </c>
       <c r="G99">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -3514,19 +3556,19 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E100">
-        <v>-1.24</v>
+        <v>-0.91</v>
       </c>
       <c r="F100">
-        <v>0.922</v>
+        <v>0.857</v>
       </c>
       <c r="G100">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3537,22 +3579,22 @@
         <v>4572</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E101">
-        <v>-1.2</v>
+        <v>3.26</v>
       </c>
       <c r="F101">
-        <v>0.909</v>
+        <v>0.003</v>
       </c>
       <c r="G101">
-        <v>0.29</v>
+        <v>1.01</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3563,22 +3605,22 @@
         <v>4574</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102">
-        <v>-1.32</v>
+        <v>-0.39</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3589,19 +3631,19 @@
         <v>4678</v>
       </c>
       <c r="C103">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103">
-        <v>7.63</v>
+        <v>3.72</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4.87</v>
+        <v>4.98</v>
       </c>
       <c r="H103">
         <v>5</v>
@@ -3615,22 +3657,22 @@
         <v>4682</v>
       </c>
       <c r="C104">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E104">
-        <v>-2.82</v>
+        <v>-5.15</v>
       </c>
       <c r="F104">
-        <v>0.9990000000000001</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>1.94</v>
+        <v>5.43</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3641,22 +3683,22 @@
         <v>4686</v>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E105">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="F105">
-        <v>0.392</v>
+        <v>0.338</v>
       </c>
       <c r="G105">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3667,22 +3709,22 @@
         <v>4692</v>
       </c>
       <c r="C106">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E106">
-        <v>-2.47</v>
+        <v>-3.58</v>
       </c>
       <c r="F106">
-        <v>0.9990000000000001</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>1.22</v>
+        <v>1.81</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3693,19 +3735,19 @@
         <v>4694</v>
       </c>
       <c r="C107">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E107">
-        <v>1.8</v>
+        <v>-0.89</v>
       </c>
       <c r="F107">
-        <v>0.046</v>
+        <v>0.828</v>
       </c>
       <c r="G107">
-        <v>1.46</v>
+        <v>2.93</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -3719,19 +3761,19 @@
         <v>4698</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108">
-        <v>-2.47</v>
+        <v>-6.09</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -3745,19 +3787,19 @@
         <v>4700</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E109">
-        <v>-2.82</v>
+        <v>-3.54</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -3771,22 +3813,22 @@
         <v>4702</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E110">
-        <v>-1.73</v>
+        <v>-3.56</v>
       </c>
       <c r="F110">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3797,22 +3839,22 @@
         <v>4740</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E111">
-        <v>-2.34</v>
+        <v>-1.94</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G111">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3823,22 +3865,22 @@
         <v>4742</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112">
-        <v>-2.01</v>
+        <v>-1.87</v>
       </c>
       <c r="F112">
-        <v>0.9990000000000001</v>
+        <v>0.991</v>
       </c>
       <c r="G112">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3849,22 +3891,22 @@
         <v>4748</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113">
-        <v>-4.15</v>
+        <v>-3.75</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3878,19 +3920,19 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114">
-        <v>-2.38</v>
+        <v>-2.52</v>
       </c>
       <c r="F114">
         <v>0.998</v>
       </c>
       <c r="G114">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3901,22 +3943,22 @@
         <v>4758</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E115">
-        <v>0.88</v>
+        <v>-1.75</v>
       </c>
       <c r="F115">
-        <v>0.232</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3927,22 +3969,22 @@
         <v>4764</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E116">
-        <v>-1.72</v>
+        <v>0.15</v>
       </c>
       <c r="F116">
-        <v>0.991</v>
+        <v>0.425</v>
       </c>
       <c r="G116">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3953,22 +3995,22 @@
         <v>4766</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E117">
-        <v>-0.78</v>
+        <v>-0.09</v>
       </c>
       <c r="F117">
-        <v>0.873</v>
+        <v>0.5710000000000001</v>
       </c>
       <c r="G117">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3979,19 +4021,19 @@
         <v>4812</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E118">
-        <v>-2.61</v>
+        <v>-2.77</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4005,19 +4047,19 @@
         <v>4814</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E119">
-        <v>-1.12</v>
+        <v>0.21</v>
       </c>
       <c r="F119">
-        <v>0.917</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="G119">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -4031,22 +4073,22 @@
         <v>4830</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
         <v>124</v>
       </c>
       <c r="E120">
-        <v>-0.74</v>
+        <v>-0.04</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4057,19 +4099,19 @@
         <v>4946</v>
       </c>
       <c r="C121">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
         <v>125</v>
       </c>
       <c r="E121">
-        <v>-0.51</v>
+        <v>-0.01</v>
       </c>
       <c r="F121">
-        <v>0.6829999999999999</v>
+        <v>0.507</v>
       </c>
       <c r="G121">
-        <v>1.51</v>
+        <v>4.53</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -4083,22 +4125,22 @@
         <v>4950</v>
       </c>
       <c r="C122">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
         <v>126</v>
       </c>
       <c r="E122">
-        <v>1.59</v>
+        <v>3.8</v>
       </c>
       <c r="F122">
-        <v>0.08500000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="G122">
-        <v>0.67</v>
+        <v>4.13</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4109,22 +4151,22 @@
         <v>4952</v>
       </c>
       <c r="C123">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
         <v>127</v>
       </c>
       <c r="E123">
-        <v>1.91</v>
+        <v>6.43</v>
       </c>
       <c r="F123">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.58</v>
+        <v>2.58</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4135,22 +4177,22 @@
         <v>4954</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
         <v>128</v>
       </c>
       <c r="E124">
-        <v>-1.61</v>
+        <v>-1.76</v>
       </c>
       <c r="F124">
-        <v>0.966</v>
+        <v>0.9670000000000001</v>
       </c>
       <c r="G124">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4161,22 +4203,22 @@
         <v>4958</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>129</v>
       </c>
       <c r="E125">
-        <v>-0.73</v>
+        <v>0.77</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.257</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4187,22 +4229,22 @@
         <v>4994</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
         <v>130</v>
       </c>
       <c r="E126">
-        <v>-2.66</v>
+        <v>-2.11</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="G126">
-        <v>0.19</v>
+        <v>0.83</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4213,22 +4255,22 @@
         <v>4998</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
         <v>131</v>
       </c>
       <c r="E127">
-        <v>-1.61</v>
+        <v>-0.3</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.622</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4239,22 +4281,22 @@
         <v>5002</v>
       </c>
       <c r="C128">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
       </c>
       <c r="E128">
-        <v>-1.17</v>
+        <v>-1.94</v>
       </c>
       <c r="F128">
-        <v>0.904</v>
+        <v>0.987</v>
       </c>
       <c r="G128">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4265,19 +4307,19 @@
         <v>5004</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
       </c>
       <c r="E129">
-        <v>-2.88</v>
+        <v>-4.7</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
       <c r="G129">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -4291,22 +4333,22 @@
         <v>5006</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
       </c>
       <c r="E130">
-        <v>0.2</v>
+        <v>-2.06</v>
       </c>
       <c r="F130">
-        <v>0.477</v>
+        <v>0.9990000000000001</v>
       </c>
       <c r="G130">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4317,22 +4359,22 @@
         <v>5010</v>
       </c>
       <c r="C131">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D131" t="s">
         <v>135</v>
       </c>
       <c r="E131">
-        <v>2.86</v>
+        <v>-0.19</v>
       </c>
       <c r="F131">
-        <v>0.008</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G131">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4343,22 +4385,22 @@
         <v>5012</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
         <v>136</v>
       </c>
       <c r="E132">
-        <v>-1.59</v>
+        <v>-0.72</v>
       </c>
       <c r="F132">
-        <v>0.981</v>
+        <v>0.792</v>
       </c>
       <c r="G132">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4369,22 +4411,22 @@
         <v>5014</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
         <v>137</v>
       </c>
       <c r="E133">
-        <v>-1.17</v>
+        <v>-1.74</v>
       </c>
       <c r="F133">
-        <v>0.9570000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="G133">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4395,22 +4437,22 @@
         <v>5016</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D134" t="s">
         <v>138</v>
       </c>
       <c r="E134">
-        <v>6.16</v>
+        <v>2.67</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="G134">
-        <v>3.19</v>
+        <v>2.42</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4421,22 +4463,22 @@
         <v>5018</v>
       </c>
       <c r="C135">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
         <v>139</v>
       </c>
       <c r="E135">
-        <v>3.8</v>
+        <v>4.42</v>
       </c>
       <c r="F135">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G135">
-        <v>0.84</v>
+        <v>1.7</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4447,22 +4489,22 @@
         <v>5020</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
         <v>140</v>
       </c>
       <c r="E136">
-        <v>-0.31</v>
+        <v>-0.89</v>
       </c>
       <c r="F136">
-        <v>0.6409999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="G136">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4473,19 +4515,19 @@
         <v>5022</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
         <v>141</v>
       </c>
       <c r="E137">
-        <v>-0.12</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F137">
-        <v>0.667</v>
+        <v>0.8190000000000001</v>
       </c>
       <c r="G137">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -4502,16 +4544,16 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E138">
-        <v>-1.3</v>
+        <v>-2.22</v>
       </c>
       <c r="F138">
-        <v>0.9790000000000001</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -4525,22 +4567,22 @@
         <v>5062</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E139">
-        <v>-1.15</v>
+        <v>-0.61</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.757</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4551,22 +4593,22 @@
         <v>5064</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E140">
-        <v>-1.52</v>
+        <v>-2.54</v>
       </c>
       <c r="F140">
-        <v>0.9690000000000001</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4577,19 +4619,19 @@
         <v>5066</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E141">
-        <v>-0.6899999999999999</v>
+        <v>-1.01</v>
       </c>
       <c r="F141">
-        <v>0.84</v>
+        <v>0.884</v>
       </c>
       <c r="G141">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -4603,22 +4645,22 @@
         <v>5068</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E142">
-        <v>-2.3</v>
+        <v>-4.23</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4629,22 +4671,22 @@
         <v>5070</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E143">
-        <v>0.88</v>
+        <v>-2.16</v>
       </c>
       <c r="F143">
-        <v>0.283</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4655,22 +4697,22 @@
         <v>5074</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E144">
-        <v>1.24</v>
+        <v>-0.82</v>
       </c>
       <c r="F144">
-        <v>0.151</v>
+        <v>0.833</v>
       </c>
       <c r="G144">
         <v>0.19</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4681,19 +4723,19 @@
         <v>5076</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E145">
-        <v>-1.84</v>
+        <v>-1.01</v>
       </c>
       <c r="F145">
-        <v>0.9890000000000001</v>
+        <v>0.866</v>
       </c>
       <c r="G145">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -4707,22 +4749,22 @@
         <v>5078</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E146">
-        <v>-0.21</v>
+        <v>0.39</v>
       </c>
       <c r="F146">
-        <v>0.446</v>
+        <v>0.341</v>
       </c>
       <c r="G146">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4733,22 +4775,22 @@
         <v>5080</v>
       </c>
       <c r="C147">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E147">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="F147">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="G147">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4759,22 +4801,22 @@
         <v>5082</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E148">
-        <v>1.49</v>
+        <v>0.24</v>
       </c>
       <c r="F148">
-        <v>0.121</v>
+        <v>0.43</v>
       </c>
       <c r="G148">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4785,19 +4827,19 @@
         <v>5084</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E149">
-        <v>-0.44</v>
+        <v>-1.62</v>
       </c>
       <c r="F149">
-        <v>0.715</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="G149">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -4811,22 +4853,22 @@
         <v>5086</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E150">
-        <v>-0.5600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.7390000000000001</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4837,19 +4879,19 @@
         <v>6342</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E151">
-        <v>-0.75</v>
+        <v>-0.85</v>
       </c>
       <c r="F151">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="G151">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -4863,22 +4905,22 @@
         <v>6348</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D152" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E152">
-        <v>-1.09</v>
+        <v>-1.23</v>
       </c>
       <c r="F152">
-        <v>0.8740000000000001</v>
+        <v>0.903</v>
       </c>
       <c r="G152">
-        <v>0.77</v>
+        <v>1.15</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4889,22 +4931,22 @@
         <v>6350</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E153">
-        <v>-1.14</v>
+        <v>0.13</v>
       </c>
       <c r="F153">
-        <v>0.9399999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="G153">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4915,22 +4957,22 @@
         <v>6356</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E154">
-        <v>-1.73</v>
+        <v>0.09</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.468</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4944,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E155">
-        <v>-1.06</v>
+        <v>-1.44</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4967,22 +5009,22 @@
         <v>6364</v>
       </c>
       <c r="C156">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E156">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="F156">
-        <v>0.022</v>
+        <v>0.178</v>
       </c>
       <c r="G156">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4993,19 +5035,19 @@
         <v>6366</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E157">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="F157">
-        <v>0.178</v>
+        <v>0.265</v>
       </c>
       <c r="G157">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -5019,22 +5061,22 @@
         <v>6550</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E158">
-        <v>-1.17</v>
+        <v>-1.11</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.9420000000000001</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5045,19 +5087,19 @@
         <v>6552</v>
       </c>
       <c r="C159">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E159">
-        <v>8.6</v>
+        <v>11.81</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H159">
         <v>6</v>
@@ -5071,22 +5113,22 @@
         <v>6554</v>
       </c>
       <c r="C160">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D160" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E160">
-        <v>5.02</v>
+        <v>4.34</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5097,22 +5139,22 @@
         <v>6558</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E161">
-        <v>1.81</v>
+        <v>-1</v>
       </c>
       <c r="F161">
-        <v>0.1</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G161">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5123,22 +5165,22 @@
         <v>6598</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E162">
-        <v>-0.76</v>
+        <v>-0.22</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.635</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5152,16 +5194,16 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E163">
-        <v>-0.6899999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="F163">
-        <v>0.8440000000000001</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="G163">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5175,19 +5217,19 @@
         <v>6604</v>
       </c>
       <c r="C164">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D164" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E164">
-        <v>1.68</v>
+        <v>-0.36</v>
       </c>
       <c r="F164">
-        <v>0.065</v>
+        <v>0.637</v>
       </c>
       <c r="G164">
-        <v>0.55</v>
+        <v>0.91</v>
       </c>
       <c r="H164">
         <v>4</v>
@@ -5204,16 +5246,16 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E165">
-        <v>2.35</v>
+        <v>0.71</v>
       </c>
       <c r="F165">
-        <v>0.058</v>
+        <v>0.308</v>
       </c>
       <c r="G165">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -5227,22 +5269,22 @@
         <v>6614</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E166">
-        <v>-0.31</v>
+        <v>-1.23</v>
       </c>
       <c r="F166">
-        <v>0.7090000000000001</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5253,22 +5295,22 @@
         <v>6616</v>
       </c>
       <c r="C167">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D167" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E167">
-        <v>13.46</v>
+        <v>18.2</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5282,16 +5324,16 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E168">
-        <v>0.89</v>
+        <v>2.38</v>
       </c>
       <c r="F168">
-        <v>0.209</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="G168">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -5305,22 +5347,22 @@
         <v>6620</v>
       </c>
       <c r="C169">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E169">
-        <v>10.91</v>
+        <v>15.38</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5331,22 +5373,22 @@
         <v>6622</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E170">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="F170">
-        <v>0.135</v>
+        <v>0.123</v>
       </c>
       <c r="G170">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5357,22 +5399,22 @@
         <v>6854</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E171">
-        <v>-0.63</v>
+        <v>0.57</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.327</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5383,22 +5425,22 @@
         <v>6858</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E172">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.513</v>
+        <v>0.186</v>
       </c>
       <c r="G172">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5409,19 +5451,19 @@
         <v>6862</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E173">
-        <v>0.13</v>
+        <v>1.06</v>
       </c>
       <c r="F173">
-        <v>0.542</v>
+        <v>0.238</v>
       </c>
       <c r="G173">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5438,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E174">
-        <v>-0.47</v>
+        <v>-1.19</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -5461,22 +5503,22 @@
         <v>6874</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E175">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="F175">
-        <v>0.83</v>
+        <v>0.768</v>
       </c>
       <c r="G175">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5487,19 +5529,19 @@
         <v>6876</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E176">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="F176">
-        <v>0.313</v>
+        <v>0.276</v>
       </c>
       <c r="G176">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -5513,22 +5555,22 @@
         <v>6878</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E177">
-        <v>3.59</v>
+        <v>2.08</v>
       </c>
       <c r="F177">
-        <v>0.029</v>
+        <v>0.057</v>
       </c>
       <c r="G177">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5539,22 +5581,22 @@
         <v>7126</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E178">
-        <v>-0.28</v>
+        <v>4.69</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5565,19 +5607,19 @@
         <v>7128</v>
       </c>
       <c r="C179">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E179">
-        <v>3.67</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F179">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -5591,22 +5633,22 @@
         <v>7130</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E180">
-        <v>1.07</v>
+        <v>5.43</v>
       </c>
       <c r="F180">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5617,22 +5659,22 @@
         <v>7134</v>
       </c>
       <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>183</v>
+      </c>
+      <c r="E181">
+        <v>5.37</v>
+      </c>
+      <c r="F181">
+        <v>0.003</v>
+      </c>
+      <c r="G181">
+        <v>0.13</v>
+      </c>
+      <c r="H181">
         <v>2</v>
-      </c>
-      <c r="D181" t="s">
-        <v>174</v>
-      </c>
-      <c r="E181">
-        <v>8.07</v>
-      </c>
-      <c r="F181">
-        <v>0.004</v>
-      </c>
-      <c r="G181">
-        <v>0.05</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5643,22 +5685,22 @@
         <v>13142</v>
       </c>
       <c r="C182">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D182" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E182">
-        <v>4.62</v>
+        <v>10.01</v>
       </c>
       <c r="F182">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>0.55</v>
+        <v>2.18</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5669,22 +5711,22 @@
         <v>13146</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E183">
-        <v>-0.22</v>
+        <v>-0.02</v>
       </c>
       <c r="F183">
-        <v>0.6820000000000001</v>
+        <v>0.5579999999999999</v>
       </c>
       <c r="G183">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5698,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E184">
-        <v>-1.08</v>
+        <v>-2.16</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -5721,19 +5763,19 @@
         <v>13150</v>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E185">
-        <v>4.84</v>
+        <v>6.25</v>
       </c>
       <c r="F185">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>0.12</v>
+        <v>0.53</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -5750,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E186">
-        <v>-0.5</v>
+        <v>-1.55</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -5773,22 +5815,22 @@
         <v>13262</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E187">
-        <v>-0.51</v>
+        <v>-0.96</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.924</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5799,22 +5841,22 @@
         <v>13278</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E188">
-        <v>-0.12</v>
+        <v>3.21</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.023</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5825,22 +5867,22 @@
         <v>14678</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E189">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="F189">
-        <v>0.112</v>
+        <v>0.03</v>
       </c>
       <c r="G189">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5851,22 +5893,22 @@
         <v>14686</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E190">
-        <v>-0.19</v>
+        <v>1.46</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.213</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5880,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -5906,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E192">
-        <v>-0.41</v>
+        <v>-0.91</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5929,22 +5971,22 @@
         <v>14810</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E193">
-        <v>1.24</v>
+        <v>4.43</v>
       </c>
       <c r="F193">
-        <v>0.186</v>
+        <v>0.005</v>
       </c>
       <c r="G193">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5955,19 +5997,19 @@
         <v>14812</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E194">
-        <v>0.17</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.547</v>
+        <v>0.28</v>
       </c>
       <c r="G194">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -5981,22 +6023,22 @@
         <v>14814</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E195">
-        <v>-0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.492</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6007,22 +6049,22 @@
         <v>15258</v>
       </c>
       <c r="C196">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D196" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E196">
-        <v>10.6</v>
+        <v>25.36</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.29</v>
+        <v>0.85</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6033,22 +6075,22 @@
         <v>15262</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E197">
-        <v>1.93</v>
+        <v>11.55</v>
       </c>
       <c r="F197">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6062,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E198">
-        <v>-0.25</v>
+        <v>-0.62</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -6085,22 +6127,22 @@
         <v>15326</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E199">
-        <v>9.07</v>
+        <v>11.79</v>
       </c>
       <c r="F199">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="G199">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6111,22 +6153,22 @@
         <v>31710</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E200">
-        <v>888888</v>
+        <v>17.53</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
